--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-mp_loss_indv.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-mp_loss_indv.xlsx
@@ -487,13 +487,13 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,19 +508,19 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -529,9 +529,7 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -549,17 +547,19 @@
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
